--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1246.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1246.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.061286207223437</v>
+        <v>1.211303234100342</v>
       </c>
       <c r="B1">
-        <v>3.112312849214315</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.387979157782397</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.9313429574225071</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.7719250553450789</v>
+        <v>1.20120906829834</v>
       </c>
     </row>
   </sheetData>
